--- a/계획표/2. 일 잘하는 사람의 시간은 다르게 흘러간다_독서.xlsx
+++ b/계획표/2. 일 잘하는 사람의 시간은 다르게 흘러간다_독서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>계획 : ACI 아키텍쳐 독서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +196,14 @@
   </si>
   <si>
     <t>목표 대분류 : 10일 안에 정독하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,20 +284,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +582,7 @@
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,12 +595,12 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,148 +616,148 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="9">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7">
         <v>111</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>35</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
         <v>156</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f>C8-C7</f>
         <v>45</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="9">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7">
         <v>175</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f t="shared" ref="D9:D15" si="0">C9-C8</f>
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7">
         <v>190</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="9">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7">
         <v>268</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="9">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7">
         <v>293</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -767,7 +771,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A7" sqref="A7:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,7 +782,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,180 +803,180 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -981,7 +985,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -990,7 +994,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1224,221 +1228,221 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/계획표/2. 일 잘하는 사람의 시간은 다르게 흘러간다_독서.xlsx
+++ b/계획표/2. 일 잘하는 사람의 시간은 다르게 흘러간다_독서.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Memo\계획표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Memo\계획표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
   </bookViews>
   <sheets>
-    <sheet name="계획표A" sheetId="1" r:id="rId1"/>
-    <sheet name="계획표B" sheetId="3" r:id="rId2"/>
-    <sheet name="점검표" sheetId="2" r:id="rId3"/>
-    <sheet name="완료결과" sheetId="4" r:id="rId4"/>
+    <sheet name="5W2H" sheetId="5" r:id="rId1"/>
+    <sheet name="계획표A" sheetId="1" r:id="rId2"/>
+    <sheet name="계획표B" sheetId="3" r:id="rId3"/>
+    <sheet name="점검표" sheetId="2" r:id="rId4"/>
+    <sheet name="완료결과" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>계획 : ACI 아키텍쳐 독서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +201,38 @@
   </si>
   <si>
     <t>목표 대분류 : 10일 안에 정독하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5W2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. WHY  :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. What ? :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Who? :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. When :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Where? :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. How? :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. How Much? :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,20 +313,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,36 +608,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="39.75" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.25" style="5"/>
-    <col min="5" max="5" width="37.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -621,139 +713,139 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>111</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>35</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>156</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f>C8-C7</f>
         <v>45</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>175</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f t="shared" ref="D9:D15" si="0">C9-C8</f>
         <v>19</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>190</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>268</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>293</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -762,36 +854,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="52.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -808,169 +900,169 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -979,7 +1071,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1080,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -996,213 +1088,6 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="86.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,233 +1097,440 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="86.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
